--- a/medicine/Œil et vue/Sight_Unseen_(série_télévisée)/Sight_Unseen_(série_télévisée).xlsx
+++ b/medicine/Œil et vue/Sight_Unseen_(série_télévisée)/Sight_Unseen_(série_télévisée).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sight_Unseen_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Sight_Unseen_(série_télévisée)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sight Unseen est une série télévisée canadienne créée par Karen Troubetzkoy er Nikolijne Troubetzkoy, et diffusée depuis le 21 janvier 2024[1] sur le réseau CTV[2]. Elle est diffusée aux États-Unis depuis le 3 avril 2024 sur le réseau The CW[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sight Unseen est une série télévisée canadienne créée par Karen Troubetzkoy er Nikolijne Troubetzkoy, et diffusée depuis le 21 janvier 2024 sur le réseau CTV. Elle est diffusée aux États-Unis depuis le 3 avril 2024 sur le réseau The CW.
 Cette série est inédite dans tous les pays francophones.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sight_Unseen_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Sight_Unseen_(série_télévisée)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sight_Unseen_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Sight_Unseen_(série_télévisée)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -540,14 +554,15 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Acteurs principaux
-Dolly Lewis : Tess Avery
+          <t>Acteurs principaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dolly Lewis : Tess Avery
 Agam Darshi : Sunny Patel
-Daniel Gillies : Jake Campbell
-Acteurs récurrents
-Jarod Joseph : Matt Alleyne
-Alice Christina-Corrigan : Mia Moss
-Tony Giroux : détective Leo Li</t>
+Daniel Gillies : Jake Campbell</t>
         </is>
       </c>
     </row>
@@ -557,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sight_Unseen_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Sight_Unseen_(série_télévisée)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,10 +587,22 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Production</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Acteurs récurrents</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Jarod Joseph : Matt Alleyne
+Alice Christina-Corrigan : Mia Moss
+Tony Giroux : détective Leo Li</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -583,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sight_Unseen_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Sight_Unseen_(série_télévisée)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -598,10 +625,40 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sight_Unseen_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sight_Unseen_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Tess
@@ -618,31 +675,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Sight_Unseen_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sight_Unseen_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Œil et vue/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Sight_Unseen_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Accueil critique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
